--- a/VISUAL MANAGEMENT SYSTEM/LIVE/Livetracker_1_3_0/LIVETRACKER/HR/EMPLOYEE_HOLIDAY_BALANCE/CACHE/data.xlsx
+++ b/VISUAL MANAGEMENT SYSTEM/LIVE/Livetracker_1_3_0/LIVETRACKER/HR/EMPLOYEE_HOLIDAY_BALANCE/CACHE/data.xlsx
@@ -10,14 +10,14 @@
     <sheet name="KentStainless-26 DAYS" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'KentStainless-26 DAYS'!$A$5:$J$190</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'KentStainless-26 DAYS'!$A$5:$J$202</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="418">
   <si>
     <t>Site</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Between</t>
   </si>
   <si>
-    <t>06/01/2022 - 20/01/2022</t>
+    <t>06/01/2022 - 01/06/2022</t>
   </si>
   <si>
     <t>Staff Number</t>
@@ -64,870 +64,1092 @@
     <t>Graham Codd</t>
   </si>
   <si>
-    <t>1.10</t>
+    <t>10.80</t>
+  </si>
+  <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>-3.20</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>John Larkin</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>15.80</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>12.80</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>Adrian Dooley</t>
+  </si>
+  <si>
+    <t>5.50</t>
+  </si>
+  <si>
+    <t>5.30</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>8.50</t>
+  </si>
+  <si>
+    <t>Damien Donovan</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>11.80</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>Michael Duggan</t>
+  </si>
+  <si>
+    <t>11.50</t>
+  </si>
+  <si>
+    <t>-0.70</t>
+  </si>
+  <si>
+    <t>James Ennis</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>John French</t>
+  </si>
+  <si>
+    <t>13.80</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>6.80</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>Anthony Hayes</t>
+  </si>
+  <si>
+    <t>5.80</t>
+  </si>
+  <si>
+    <t>Derek Long</t>
+  </si>
+  <si>
+    <t>6.50</t>
+  </si>
+  <si>
+    <t>6.30</t>
+  </si>
+  <si>
+    <t>9.50</t>
+  </si>
+  <si>
+    <t>Jonathan Mythen</t>
+  </si>
+  <si>
+    <t>7.80</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>Kevin Waters</t>
+  </si>
+  <si>
+    <t>8.80</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>Eamonn Donovan</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>9.30</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>Patrick Murphy</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>16.00</t>
+  </si>
+  <si>
+    <t>Albert Eydt</t>
+  </si>
+  <si>
+    <t>14.30</t>
+  </si>
+  <si>
+    <t>11.30</t>
+  </si>
+  <si>
+    <t>24.50</t>
+  </si>
+  <si>
+    <t>Eamonn Maloney</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>4.30</t>
+  </si>
+  <si>
+    <t>17.50</t>
+  </si>
+  <si>
+    <t>Brian Croke</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>15.50</t>
+  </si>
+  <si>
+    <t>Patrick Barnes</t>
+  </si>
+  <si>
+    <t>14.80</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>Agnes Malone</t>
+  </si>
+  <si>
+    <t>5.42</t>
+  </si>
+  <si>
+    <t>16.22</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>3.80</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>Adrian Burford</t>
+  </si>
+  <si>
+    <t>-1.20</t>
+  </si>
+  <si>
+    <t>Aidan O Toole</t>
+  </si>
+  <si>
+    <t>16.80</t>
+  </si>
+  <si>
+    <t>13.30</t>
+  </si>
+  <si>
+    <t>Derek O Brien</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>Festus Ebosele</t>
+  </si>
+  <si>
+    <t>David Berney</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>18.50</t>
+  </si>
+  <si>
+    <t>David Murphy</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>Darragh Connor</t>
+  </si>
+  <si>
+    <t>John Dooley</t>
+  </si>
+  <si>
+    <t>Finbar Buttimer</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>Paul Murphy</t>
+  </si>
+  <si>
+    <t>5.43</t>
+  </si>
+  <si>
+    <t>16.23</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>Dean Maloney</t>
+  </si>
+  <si>
+    <t>17.30</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>16.50</t>
+  </si>
+  <si>
+    <t>Padraig Donohoe</t>
   </si>
   <si>
     <t>1.00</t>
   </si>
   <si>
-    <t>0.10</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>Johnny Day</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>John Larkin</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>6.10</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>Adrian Dooley</t>
-  </si>
-  <si>
-    <t>11.00</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>Damien Donovan</t>
-  </si>
-  <si>
-    <t>Michael Duggan</t>
-  </si>
-  <si>
-    <t>James Ennis</t>
-  </si>
-  <si>
-    <t>5.10</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>John French</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>4.10</t>
-  </si>
-  <si>
-    <t>3.10</t>
+    <t>23.50</t>
+  </si>
+  <si>
+    <t>Keith Kelly</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>11.23</t>
+  </si>
+  <si>
+    <t>Thomas Mahon</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>13.50</t>
+  </si>
+  <si>
+    <t>Jim Nolan</t>
+  </si>
+  <si>
+    <t>-1.70</t>
+  </si>
+  <si>
+    <t>Dermot Frayne</t>
+  </si>
+  <si>
+    <t>2.80</t>
+  </si>
+  <si>
+    <t>Mark Crosbie</t>
+  </si>
+  <si>
+    <t>JJ Keating</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>John Walsh</t>
+  </si>
+  <si>
+    <t>8.30</t>
+  </si>
+  <si>
+    <t>20.50</t>
+  </si>
+  <si>
+    <t>Damien Connick</t>
+  </si>
+  <si>
+    <t>Patrick O Connor</t>
+  </si>
+  <si>
+    <t>Killian Connor</t>
+  </si>
+  <si>
+    <t>11.22</t>
+  </si>
+  <si>
+    <t>4.79</t>
+  </si>
+  <si>
+    <t>Daniel Carroll</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>Tony Byrne</t>
+  </si>
+  <si>
+    <t>16.30</t>
+  </si>
+  <si>
+    <t>10.30</t>
+  </si>
+  <si>
+    <t>Jason Murphy</t>
+  </si>
+  <si>
+    <t>14.50</t>
+  </si>
+  <si>
+    <t>Seamus Sinnott</t>
+  </si>
+  <si>
+    <t>Daniel Tierney</t>
+  </si>
+  <si>
+    <t>Oisin O Connor</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>12.30</t>
+  </si>
+  <si>
+    <t>Robert Murphy</t>
+  </si>
+  <si>
+    <t>-8.20</t>
+  </si>
+  <si>
+    <t>Alex O Connor</t>
+  </si>
+  <si>
+    <t>1.80</t>
+  </si>
+  <si>
+    <t>Anthony Roche</t>
+  </si>
+  <si>
+    <t>4.80</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>Lorcan Cummins</t>
+  </si>
+  <si>
+    <t>Brendan Carroll</t>
+  </si>
+  <si>
+    <t>Brian Cribbon</t>
+  </si>
+  <si>
+    <t>Darragh Cummins</t>
+  </si>
+  <si>
+    <t>Brian Murphy</t>
+  </si>
+  <si>
+    <t>Josh Byrne</t>
+  </si>
+  <si>
+    <t>Paul Cummins</t>
+  </si>
+  <si>
+    <t>Eoin Kinsella</t>
+  </si>
+  <si>
+    <t>Daniel Kearns</t>
+  </si>
+  <si>
+    <t>Leanne Furlong</t>
+  </si>
+  <si>
+    <t>Adam Kelly</t>
+  </si>
+  <si>
+    <t>Shane Murray</t>
+  </si>
+  <si>
+    <t>James Murphy</t>
+  </si>
+  <si>
+    <t>9.80</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>Craig Kehoe</t>
+  </si>
+  <si>
+    <t>Tiernan McGuire</t>
+  </si>
+  <si>
+    <t>Rees Broaders</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>Callum Morss</t>
+  </si>
+  <si>
+    <t>Kevin Cullen</t>
+  </si>
+  <si>
+    <t>13.29</t>
+  </si>
+  <si>
+    <t>5.29</t>
+  </si>
+  <si>
+    <t>Tony Moran</t>
+  </si>
+  <si>
+    <t>11.29</t>
+  </si>
+  <si>
+    <t>Eddie Moran</t>
+  </si>
+  <si>
+    <t>15.79</t>
+  </si>
+  <si>
+    <t>9.79</t>
+  </si>
+  <si>
+    <t>Shane Doran</t>
+  </si>
+  <si>
+    <t>Cian Byrne</t>
+  </si>
+  <si>
+    <t>Keith Donovan</t>
+  </si>
+  <si>
+    <t>Eddie Byrne</t>
+  </si>
+  <si>
+    <t>Aidan Murphy</t>
+  </si>
+  <si>
+    <t>Dylan Moran</t>
+  </si>
+  <si>
+    <t>Francis Moran</t>
+  </si>
+  <si>
+    <t>John Sinnott</t>
+  </si>
+  <si>
+    <t>Johan De Hoogh</t>
+  </si>
+  <si>
+    <t>21.50</t>
+  </si>
+  <si>
+    <t>Eugene Dooley</t>
+  </si>
+  <si>
+    <t>Ben O Brien</t>
+  </si>
+  <si>
+    <t>Wojciech Stypula</t>
+  </si>
+  <si>
+    <t>Piotr Stypula</t>
+  </si>
+  <si>
+    <t>David  Meyler</t>
+  </si>
+  <si>
+    <t>11.79</t>
+  </si>
+  <si>
+    <t>2.79</t>
+  </si>
+  <si>
+    <t>Vincent Bastardie</t>
+  </si>
+  <si>
+    <t>Cathal O' Leary</t>
+  </si>
+  <si>
+    <t>10.72</t>
+  </si>
+  <si>
+    <t>12.73</t>
+  </si>
+  <si>
+    <t>7.73</t>
+  </si>
+  <si>
+    <t>15.93</t>
+  </si>
+  <si>
+    <t>Wieslaw Dmitruk</t>
+  </si>
+  <si>
+    <t>Jason Kelly</t>
+  </si>
+  <si>
+    <t>Vincent McGuire</t>
+  </si>
+  <si>
+    <t>8.29</t>
+  </si>
+  <si>
+    <t>Maciej Dluzynski</t>
+  </si>
+  <si>
+    <t>Niall  McGee</t>
+  </si>
+  <si>
+    <t>Michael Meys</t>
+  </si>
+  <si>
+    <t>Shane Kelly</t>
+  </si>
+  <si>
+    <t>Graham Kelly</t>
+  </si>
+  <si>
+    <t>Tomas  O Sullivan</t>
+  </si>
+  <si>
+    <t>Graham O Sullivan</t>
+  </si>
+  <si>
+    <t>Nathan O Brien</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>12.01</t>
+  </si>
+  <si>
+    <t>-0.21</t>
+  </si>
+  <si>
+    <t>Beata Gronowska</t>
+  </si>
+  <si>
+    <t>9.29</t>
+  </si>
+  <si>
+    <t>Jake Doyle</t>
+  </si>
+  <si>
+    <t>13.71</t>
+  </si>
+  <si>
+    <t>Lukasz Flatow</t>
+  </si>
+  <si>
+    <t>9.99</t>
+  </si>
+  <si>
+    <t>-0.19</t>
+  </si>
+  <si>
+    <t>Niko Sudol</t>
+  </si>
+  <si>
+    <t>Jason Donovan</t>
+  </si>
+  <si>
+    <t>Martin Gerard Campion</t>
+  </si>
+  <si>
+    <t>9.47</t>
+  </si>
+  <si>
+    <t>-0.18</t>
+  </si>
+  <si>
+    <t>4.29</t>
+  </si>
+  <si>
+    <t>Darragh Walsh</t>
+  </si>
+  <si>
+    <t>8.45</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>Patrick Bergin</t>
+  </si>
+  <si>
+    <t>David Miller</t>
+  </si>
+  <si>
+    <t>6.90</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>3.79</t>
+  </si>
+  <si>
+    <t>Gary Moorhead</t>
+  </si>
+  <si>
+    <t>5.36</t>
+  </si>
+  <si>
+    <t>4.36</t>
+  </si>
+  <si>
+    <t>11.56</t>
+  </si>
+  <si>
+    <t>Robert Cullen</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>16.05</t>
+  </si>
+  <si>
+    <t>Barry Lambert</t>
+  </si>
+  <si>
+    <t>15.05</t>
+  </si>
+  <si>
+    <t>Jason Bradley</t>
+  </si>
+  <si>
+    <t>3.85</t>
+  </si>
+  <si>
+    <t>17.05</t>
+  </si>
+  <si>
+    <t>David Millar</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>13.05</t>
+  </si>
+  <si>
+    <t>Simon  Leacy</t>
+  </si>
+  <si>
+    <t>4.33</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>16.54</t>
+  </si>
+  <si>
+    <t>Sean Doyle</t>
+  </si>
+  <si>
+    <t>3.82</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>14.02</t>
+  </si>
+  <si>
+    <t>John Somers</t>
+  </si>
+  <si>
+    <t>8.99</t>
+  </si>
+  <si>
+    <t>Sreejith Therattil Ravi</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>16.45</t>
+  </si>
+  <si>
+    <t>Michael  Curtin</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>15.94</t>
+  </si>
+  <si>
+    <t>Magdalena Chrusciewicz</t>
+  </si>
+  <si>
+    <t>Arek Bobrowski</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>15.42</t>
+  </si>
+  <si>
+    <t>Christopher Curran</t>
+  </si>
+  <si>
+    <t>Thomas Doyle</t>
+  </si>
+  <si>
+    <t>Michael Hurley</t>
+  </si>
+  <si>
+    <t>35.30</t>
+  </si>
+  <si>
+    <t>29.30</t>
+  </si>
+  <si>
+    <t>42.50</t>
+  </si>
+  <si>
+    <t>Stephen Roche</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>Brid Carroll</t>
+  </si>
+  <si>
+    <t>Brian Kent</t>
+  </si>
+  <si>
+    <t>William Colfer</t>
+  </si>
+  <si>
+    <t>Victor Murphy</t>
+  </si>
+  <si>
+    <t>6.43</t>
+  </si>
+  <si>
+    <t>17.22</t>
+  </si>
+  <si>
+    <t>14.72</t>
+  </si>
+  <si>
+    <t>23.93</t>
+  </si>
+  <si>
+    <t>Shane Curtin</t>
+  </si>
+  <si>
+    <t>Roy Ryan</t>
+  </si>
+  <si>
+    <t>Declan Heffernan</t>
+  </si>
+  <si>
+    <t>33.80</t>
+  </si>
+  <si>
+    <t>28.80</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>Pat Kent</t>
+  </si>
+  <si>
+    <t>37.50</t>
+  </si>
+  <si>
+    <t>48.30</t>
+  </si>
+  <si>
+    <t>47.30</t>
+  </si>
+  <si>
+    <t>60.50</t>
+  </si>
+  <si>
+    <t>Derek Kent</t>
+  </si>
+  <si>
+    <t>Ann O'Brien</t>
+  </si>
+  <si>
+    <t>James Berney</t>
+  </si>
+  <si>
+    <t>7.30</t>
+  </si>
+  <si>
+    <t>Peter Edwards</t>
+  </si>
+  <si>
+    <t>19.80</t>
+  </si>
+  <si>
+    <t>William Rossiter</t>
+  </si>
+  <si>
+    <t>26.50</t>
+  </si>
+  <si>
+    <t>Gerard Maguire</t>
+  </si>
+  <si>
+    <t>17.80</t>
+  </si>
+  <si>
+    <t>Conor Boylan</t>
+  </si>
+  <si>
+    <t>25.50</t>
+  </si>
+  <si>
+    <t>James Whelan</t>
+  </si>
+  <si>
+    <t>Rosemary Byrne</t>
+  </si>
+  <si>
+    <t>15.30</t>
+  </si>
+  <si>
+    <t>Jamie Kent</t>
+  </si>
+  <si>
+    <t>Carl Murphy</t>
+  </si>
+  <si>
+    <t>Colm Whelan</t>
+  </si>
+  <si>
+    <t>Sean Keating</t>
+  </si>
+  <si>
+    <t>Eamonn O' Byrne</t>
+  </si>
+  <si>
+    <t>Sean O' Brien</t>
+  </si>
+  <si>
+    <t>-0.20</t>
+  </si>
+  <si>
+    <t>Ivan Donoghue</t>
+  </si>
+  <si>
+    <t>34.30</t>
+  </si>
+  <si>
+    <t>27.30</t>
+  </si>
+  <si>
+    <t>Barry Cleary</t>
+  </si>
+  <si>
+    <t>Antoinette Hughes</t>
+  </si>
+  <si>
+    <t>-3.50</t>
+  </si>
+  <si>
+    <t>Brendan Cloney</t>
+  </si>
+  <si>
+    <t>Padraig Bail</t>
+  </si>
+  <si>
+    <t>Michael Quinn</t>
+  </si>
+  <si>
+    <t>Olga Donoghue</t>
+  </si>
+  <si>
+    <t>Gareth Mahon</t>
+  </si>
+  <si>
+    <t>Shane Molloy</t>
+  </si>
+  <si>
+    <t>Sean Kent</t>
+  </si>
+  <si>
+    <t>Arkadiusz Morawiak</t>
+  </si>
+  <si>
+    <t>Donal Delaney</t>
+  </si>
+  <si>
+    <t>Aideen Clancy</t>
+  </si>
+  <si>
+    <t>Raymond Quirke</t>
+  </si>
+  <si>
+    <t>Cian Boggan</t>
+  </si>
+  <si>
+    <t>John Barry Reidy</t>
+  </si>
+  <si>
+    <t>Noeline Wilson</t>
+  </si>
+  <si>
+    <t>Sean Kelly</t>
+  </si>
+  <si>
+    <t>-2.70</t>
+  </si>
+  <si>
+    <t>Thomas Ffrench</t>
+  </si>
+  <si>
+    <t>Ryan Murphy</t>
+  </si>
+  <si>
+    <t>Michael Holton</t>
+  </si>
+  <si>
+    <t>Lorcan Kent</t>
+  </si>
+  <si>
+    <t>-2.20</t>
+  </si>
+  <si>
+    <t>Darrgh Kelly</t>
+  </si>
+  <si>
+    <t>Ebin Thomas</t>
+  </si>
+  <si>
+    <t>Orlaith Doyle</t>
+  </si>
+  <si>
+    <t>Joseph Ring</t>
+  </si>
+  <si>
+    <t>Roman Pitka</t>
+  </si>
+  <si>
+    <t>19.79</t>
+  </si>
+  <si>
+    <t>17.79</t>
+  </si>
+  <si>
+    <t>Aaron O Neill</t>
+  </si>
+  <si>
+    <t>Amjad Yousif</t>
+  </si>
+  <si>
+    <t>-3.70</t>
+  </si>
+  <si>
+    <t>Patrick  Doyle</t>
+  </si>
+  <si>
+    <t>Aaron Behan</t>
   </si>
   <si>
     <t>28.00</t>
   </si>
   <si>
-    <t>Anthony Hayes</t>
-  </si>
-  <si>
-    <t>Derek Long</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>Jonathan Mythen</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>Kevin Waters</t>
-  </si>
-  <si>
-    <t>Eamonn Donovan</t>
-  </si>
-  <si>
-    <t>2.10</t>
-  </si>
-  <si>
-    <t>Patrick Murphy</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>Albert Eydt</t>
-  </si>
-  <si>
-    <t>3.50</t>
-  </si>
-  <si>
-    <t>4.60</t>
-  </si>
-  <si>
-    <t>3.60</t>
-  </si>
-  <si>
-    <t>28.50</t>
-  </si>
-  <si>
-    <t>Eamonn Maloney</t>
-  </si>
-  <si>
-    <t>0.50</t>
-  </si>
-  <si>
-    <t>1.60</t>
-  </si>
-  <si>
-    <t>26.50</t>
-  </si>
-  <si>
-    <t>Brian Croke</t>
-  </si>
-  <si>
-    <t>-0.90</t>
-  </si>
-  <si>
-    <t>Patrick Barnes</t>
-  </si>
-  <si>
-    <t>Agnes Malone</t>
-  </si>
-  <si>
-    <t>5.42</t>
-  </si>
-  <si>
-    <t>6.52</t>
-  </si>
-  <si>
-    <t>31.42</t>
-  </si>
-  <si>
-    <t>Adrian Burford</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>Aidan O Toole</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>7.10</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>Derek O Brien</t>
-  </si>
-  <si>
-    <t>Festus Ebosele</t>
-  </si>
-  <si>
-    <t>David Berney</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>David Murphy</t>
-  </si>
-  <si>
-    <t>29.50</t>
-  </si>
-  <si>
-    <t>Darragh Connor</t>
-  </si>
-  <si>
-    <t>John Dooley</t>
-  </si>
-  <si>
-    <t>Finbar Buttimer</t>
-  </si>
-  <si>
-    <t>Paul Murphy</t>
-  </si>
-  <si>
-    <t>5.43</t>
-  </si>
-  <si>
-    <t>6.53</t>
-  </si>
-  <si>
-    <t>31.43</t>
-  </si>
-  <si>
-    <t>Dean Maloney</t>
-  </si>
-  <si>
-    <t>6.50</t>
-  </si>
-  <si>
-    <t>7.60</t>
-  </si>
-  <si>
-    <t>31.50</t>
-  </si>
-  <si>
-    <t>Padraig Donohoe</t>
-  </si>
-  <si>
-    <t>Keith Kelly</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>1.53</t>
-  </si>
-  <si>
-    <t>26.43</t>
-  </si>
-  <si>
-    <t>Thomas Mahon</t>
-  </si>
-  <si>
-    <t>Jim Nolan</t>
-  </si>
-  <si>
-    <t>Dermot Frayne</t>
-  </si>
-  <si>
-    <t>Mark Crosbie</t>
-  </si>
-  <si>
-    <t>2.60</t>
-  </si>
-  <si>
-    <t>27.50</t>
-  </si>
-  <si>
-    <t>JJ Keating</t>
-  </si>
-  <si>
-    <t>John Walsh</t>
-  </si>
-  <si>
-    <t>Damien Connick</t>
-  </si>
-  <si>
-    <t>Patrick O Connor</t>
-  </si>
-  <si>
-    <t>Killian Connor</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>24.93</t>
-  </si>
-  <si>
-    <t>Daniel Carroll</t>
-  </si>
-  <si>
-    <t>Tony Byrne</t>
-  </si>
-  <si>
-    <t>5.50</t>
-  </si>
-  <si>
-    <t>6.60</t>
-  </si>
-  <si>
-    <t>Jason Murphy</t>
-  </si>
-  <si>
-    <t>Seamus Sinnott</t>
-  </si>
-  <si>
-    <t>Daniel Tierney</t>
-  </si>
-  <si>
-    <t>Oisin O Connor</t>
-  </si>
-  <si>
-    <t>Robert Murphy</t>
-  </si>
-  <si>
-    <t>14.00</t>
-  </si>
-  <si>
-    <t>Alex O Connor</t>
-  </si>
-  <si>
-    <t>Anthony Roche</t>
-  </si>
-  <si>
-    <t>Lorcan Cummins</t>
-  </si>
-  <si>
-    <t>Colin Dooley</t>
-  </si>
-  <si>
-    <t>Brendan Carroll</t>
-  </si>
-  <si>
-    <t>Brian Cribbon</t>
-  </si>
-  <si>
-    <t>-0.40</t>
-  </si>
-  <si>
-    <t>24.50</t>
-  </si>
-  <si>
-    <t>Darragh Cummins</t>
-  </si>
-  <si>
-    <t>Brian Murphy</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>Josh Byrne</t>
-  </si>
-  <si>
-    <t>Paul Cummins</t>
-  </si>
-  <si>
-    <t>Eoin Kinsella</t>
-  </si>
-  <si>
-    <t>Daniel Kearns</t>
-  </si>
-  <si>
-    <t>Leanne Furlong</t>
-  </si>
-  <si>
-    <t>Adam Kelly</t>
-  </si>
-  <si>
-    <t>Shane Murray</t>
-  </si>
-  <si>
-    <t>James Murphy</t>
-  </si>
-  <si>
-    <t>Craig Kehoe</t>
-  </si>
-  <si>
-    <t>2.11</t>
-  </si>
-  <si>
-    <t>Tiernan McGuire</t>
-  </si>
-  <si>
-    <t>Chris Murphy</t>
-  </si>
-  <si>
-    <t>Rees Broaders</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>Callum Morss</t>
-  </si>
-  <si>
-    <t>6.11</t>
-  </si>
-  <si>
-    <t>Kevin Cullen</t>
-  </si>
-  <si>
-    <t>Tony Moran</t>
-  </si>
-  <si>
-    <t>Eddie Moran</t>
-  </si>
-  <si>
-    <t>Shane Doran</t>
-  </si>
-  <si>
-    <t>Kieran Moore</t>
-  </si>
-  <si>
-    <t>3.36</t>
-  </si>
-  <si>
-    <t>4.46</t>
-  </si>
-  <si>
-    <t>3.46</t>
-  </si>
-  <si>
-    <t>28.36</t>
-  </si>
-  <si>
-    <t>Cian Byrne</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>Luras Zilionis</t>
-  </si>
-  <si>
-    <t>Keith Donovan</t>
-  </si>
-  <si>
-    <t>Michael Culleton</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>Vadims Nikiforovs</t>
-  </si>
-  <si>
-    <t>Eddie Byrne</t>
-  </si>
-  <si>
-    <t>David Fitzgerald</t>
-  </si>
-  <si>
-    <t>Aidan Murphy</t>
-  </si>
-  <si>
-    <t>Dylan Moran</t>
-  </si>
-  <si>
-    <t>Francis Moran</t>
-  </si>
-  <si>
-    <t>John Sinnott</t>
-  </si>
-  <si>
-    <t>Patrick  Roch</t>
-  </si>
-  <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>26.29</t>
-  </si>
-  <si>
-    <t>Johan De Hoogh</t>
-  </si>
-  <si>
-    <t>Eugene Dooley</t>
-  </si>
-  <si>
-    <t>Ben O Brien</t>
-  </si>
-  <si>
-    <t>Wojciech Stypula</t>
-  </si>
-  <si>
-    <t>Piotr Stypula</t>
-  </si>
-  <si>
-    <t>David  Meyler</t>
-  </si>
-  <si>
-    <t>Vincent Bastardie</t>
-  </si>
-  <si>
-    <t>Cathal O' Leary</t>
-  </si>
-  <si>
-    <t>Wieslaw Dmitruk</t>
-  </si>
-  <si>
-    <t>Jason Kelly</t>
-  </si>
-  <si>
-    <t>Vincent McGuire</t>
-  </si>
-  <si>
-    <t>Maciej Dluzynski</t>
-  </si>
-  <si>
-    <t>Niall  McGee</t>
-  </si>
-  <si>
-    <t>Michael Meys</t>
-  </si>
-  <si>
-    <t>Shane Kelly</t>
-  </si>
-  <si>
-    <t>Graham Kelly</t>
-  </si>
-  <si>
-    <t>Tomas  O Sullivan</t>
-  </si>
-  <si>
-    <t>Graham O Sullivan</t>
-  </si>
-  <si>
-    <t>James  Flood</t>
-  </si>
-  <si>
-    <t>Adrian Furlong</t>
-  </si>
-  <si>
-    <t>Johnathon Byrne</t>
-  </si>
-  <si>
-    <t>Nathan O Brien</t>
-  </si>
-  <si>
-    <t>1.21</t>
-  </si>
-  <si>
-    <t>2.31</t>
-  </si>
-  <si>
-    <t>27.21</t>
-  </si>
-  <si>
-    <t>Aaron Findlay</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>1.24</t>
-  </si>
-  <si>
-    <t>26.14</t>
-  </si>
-  <si>
-    <t>Beata Gronowska</t>
-  </si>
-  <si>
-    <t>0.81</t>
-  </si>
-  <si>
-    <t>19.71</t>
-  </si>
-  <si>
-    <t>Jake Doyle</t>
-  </si>
-  <si>
-    <t>25.71</t>
-  </si>
-  <si>
-    <t>Lukasz Flatow</t>
-  </si>
-  <si>
-    <t>25.19</t>
-  </si>
-  <si>
-    <t>Niko Sudol</t>
-  </si>
-  <si>
-    <t>Jason Donovan</t>
-  </si>
-  <si>
-    <t>Michael Hurley</t>
-  </si>
-  <si>
-    <t>25.60</t>
-  </si>
-  <si>
-    <t>50.50</t>
-  </si>
-  <si>
-    <t>Stephen Roche</t>
-  </si>
-  <si>
-    <t>Brid Carroll</t>
-  </si>
-  <si>
-    <t>Brian Kent</t>
-  </si>
-  <si>
-    <t>William Colfer</t>
-  </si>
-  <si>
-    <t>4.11</t>
-  </si>
-  <si>
-    <t>3.11</t>
-  </si>
-  <si>
-    <t>Victor Murphy</t>
-  </si>
-  <si>
-    <t>6.43</t>
-  </si>
-  <si>
-    <t>7.53</t>
-  </si>
-  <si>
-    <t>32.43</t>
-  </si>
-  <si>
-    <t>Shane Curtin</t>
-  </si>
-  <si>
-    <t>Roy Ryan</t>
-  </si>
-  <si>
-    <t>Declan Heffernan</t>
-  </si>
-  <si>
-    <t>24.10</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>Pat Kent</t>
-  </si>
-  <si>
-    <t>37.50</t>
-  </si>
-  <si>
-    <t>38.60</t>
-  </si>
-  <si>
-    <t>63.50</t>
-  </si>
-  <si>
-    <t>Derek Kent</t>
-  </si>
-  <si>
-    <t>Ann O'Brien</t>
-  </si>
-  <si>
-    <t>James Berney</t>
-  </si>
-  <si>
-    <t>Peter Edwards</t>
-  </si>
-  <si>
-    <t>9.00</t>
-  </si>
-  <si>
-    <t>10.10</t>
-  </si>
-  <si>
-    <t>William Rossiter</t>
-  </si>
-  <si>
-    <t>Gerard Maguire</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>8.10</t>
-  </si>
-  <si>
-    <t>Conor Boylan</t>
-  </si>
-  <si>
-    <t>30.50</t>
-  </si>
-  <si>
-    <t>James Whelan</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>Rosemary Byrne</t>
-  </si>
-  <si>
-    <t>4.50</t>
-  </si>
-  <si>
-    <t>5.60</t>
-  </si>
-  <si>
-    <t>Jamie Kent</t>
-  </si>
-  <si>
-    <t>Carl Murphy</t>
-  </si>
-  <si>
-    <t>Colm Whelan</t>
-  </si>
-  <si>
-    <t>Sean Keating</t>
-  </si>
-  <si>
-    <t>Eamonn O' Byrne</t>
-  </si>
-  <si>
-    <t>Sean O' Brien</t>
-  </si>
-  <si>
-    <t>Ivan Donoghue</t>
-  </si>
-  <si>
-    <t>23.50</t>
-  </si>
-  <si>
-    <t>24.60</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>Barry Cleary</t>
-  </si>
-  <si>
-    <t>Antoinette Hughes</t>
-  </si>
-  <si>
-    <t>-4.50</t>
-  </si>
-  <si>
-    <t>Brendan Cloney</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>16.50</t>
-  </si>
-  <si>
-    <t>Padraig Bail</t>
-  </si>
-  <si>
-    <t>Michael Quinn</t>
-  </si>
-  <si>
-    <t>Olga Donoghue</t>
-  </si>
-  <si>
-    <t>Gareth Mahon</t>
-  </si>
-  <si>
-    <t>Shane Molloy</t>
-  </si>
-  <si>
-    <t>0.60</t>
-  </si>
-  <si>
-    <t>25.50</t>
-  </si>
-  <si>
-    <t>Sean Kent</t>
-  </si>
-  <si>
-    <t>Arkadiusz Morawiak</t>
-  </si>
-  <si>
-    <t>Donal Delaney</t>
-  </si>
-  <si>
-    <t>Aideen Clancy</t>
-  </si>
-  <si>
-    <t>Raymond Quirke</t>
-  </si>
-  <si>
-    <t>Milorad Pasic</t>
-  </si>
-  <si>
-    <t>Cian Boggan</t>
-  </si>
-  <si>
-    <t>John Barry Reidy</t>
-  </si>
-  <si>
-    <t>Noeline Wilson</t>
-  </si>
-  <si>
-    <t>Sean Kelly</t>
-  </si>
-  <si>
-    <t>Thomas Ffrench</t>
-  </si>
-  <si>
-    <t>Ryan Murphy</t>
-  </si>
-  <si>
-    <t>Michael Holton</t>
-  </si>
-  <si>
-    <t>Lorcan Kent</t>
-  </si>
-  <si>
-    <t>Darrgh Kelly</t>
-  </si>
-  <si>
-    <t>Ebin Thomas</t>
-  </si>
-  <si>
-    <t>Orlaith Doyle</t>
-  </si>
-  <si>
-    <t>Joseph Ring</t>
-  </si>
-  <si>
-    <t>Roman Pitka</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>Aaron O Neill</t>
-  </si>
-  <si>
-    <t>Amjad Yousif</t>
-  </si>
-  <si>
-    <t>Ahmed El Bastawisy</t>
-  </si>
-  <si>
-    <t>-1.90</t>
-  </si>
-  <si>
-    <t>Patrick  Doyle</t>
-  </si>
-  <si>
-    <t>Aaron Behan</t>
-  </si>
-  <si>
     <t>Rory O' Connor</t>
   </si>
   <si>
     <t>Michelle Busher</t>
   </si>
   <si>
+    <t>12.29</t>
+  </si>
+  <si>
     <t>Jason Webster</t>
   </si>
   <si>
-    <t>21.50</t>
+    <t>-0.71</t>
   </si>
   <si>
     <t>Shane Ryan</t>
   </si>
   <si>
+    <t>14.79</t>
+  </si>
+  <si>
+    <t>5.79</t>
+  </si>
+  <si>
     <t>David Lehnardt</t>
   </si>
   <si>
@@ -937,10 +1159,7 @@
     <t>Michael Codd</t>
   </si>
   <si>
-    <t>Chloe Roche</t>
-  </si>
-  <si>
-    <t>6.61</t>
+    <t>8.79</t>
   </si>
   <si>
     <t>Margaret Codd</t>
@@ -949,31 +1168,109 @@
     <t>Conor Clarke</t>
   </si>
   <si>
-    <t>Frank Doyle</t>
+    <t>Sean  O Brien</t>
+  </si>
+  <si>
+    <t>8.96</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>Fin Condon</t>
+  </si>
+  <si>
+    <t>7.42</t>
+  </si>
+  <si>
+    <t>-0.12</t>
+  </si>
+  <si>
+    <t>Johnny  Day</t>
+  </si>
+  <si>
+    <t>-1.00</t>
+  </si>
+  <si>
+    <t>Robert Edwards</t>
+  </si>
+  <si>
+    <t>6.39</t>
+  </si>
+  <si>
+    <t>-0.59</t>
+  </si>
+  <si>
+    <t>Catherine Kinsella</t>
+  </si>
+  <si>
+    <t>5.88</t>
+  </si>
+  <si>
+    <t>-0.58</t>
+  </si>
+  <si>
+    <t>Declan Walshe</t>
+  </si>
+  <si>
+    <t>-0.56</t>
+  </si>
+  <si>
+    <t>Joanne Smith</t>
+  </si>
+  <si>
+    <t>4.19</t>
+  </si>
+  <si>
+    <t>-0.39</t>
+  </si>
+  <si>
+    <t>Cuneguines Nixon</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>17.41</t>
+  </si>
+  <si>
+    <t>Ahmed Touami</t>
+  </si>
+  <si>
+    <t>Daniel Beltran (Rossi)</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>16.41</t>
+  </si>
+  <si>
+    <t>Micheál Curtis</t>
   </si>
   <si>
     <t>Overall Total</t>
   </si>
   <si>
-    <t>531.14</t>
-  </si>
-  <si>
-    <t>198.30</t>
-  </si>
-  <si>
-    <t>729.44</t>
-  </si>
-  <si>
-    <t>46.50</t>
-  </si>
-  <si>
-    <t>678.44</t>
-  </si>
-  <si>
-    <t>143.00</t>
-  </si>
-  <si>
-    <t>5091.83</t>
+    <t>510.85</t>
+  </si>
+  <si>
+    <t>1918.34</t>
+  </si>
+  <si>
+    <t>2429.20</t>
+  </si>
+  <si>
+    <t>1069.50</t>
+  </si>
+  <si>
+    <t>1359.51</t>
+  </si>
+  <si>
+    <t>990.50</t>
+  </si>
+  <si>
+    <t>3333.67</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1747,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M190"/>
+  <dimension ref="A1:M202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -1460,11 +1757,11 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="true" style="1"/>
-    <col min="2" max="2" width="23" customWidth="true" style="1"/>
+    <col min="2" max="2" width="28" customWidth="true" style="1"/>
     <col min="3" max="3" width="20" customWidth="true" style="1"/>
     <col min="4" max="4" width="15" customWidth="true" style="1"/>
     <col min="5" max="5" width="28" customWidth="true" style="1"/>
-    <col min="6" max="6" width="10" customWidth="true" style="1"/>
+    <col min="6" max="6" width="12" customWidth="true" style="1"/>
     <col min="7" max="7" width="15" customWidth="true" style="1"/>
     <col min="8" max="8" width="16" customWidth="true" style="1"/>
     <col min="9" max="9" width="12" customWidth="true" style="1"/>
@@ -1583,703 +1880,783 @@
       <c r="H6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="D7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="J7" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="6">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="6">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="6"/>
       <c r="J10" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="D11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J11" s="9" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="6">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="8">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="J13" s="9" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="6">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="D14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="J14" s="7" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="8">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="6">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="D17" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="J17" s="9" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="6">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="J18" s="7" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="8">
+        <v>60</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="D19" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J19" s="9" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J20" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="8">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>56</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="8"/>
+        <v>73</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J21" s="9" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="6">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="D22" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="J22" s="7" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+        <v>82</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="H23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J23" s="9" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="6">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J24" s="7" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="8">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="6">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I26" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J26" s="7" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="8">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="J27" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="6">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="D28" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J29" s="9" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="6">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I30" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="J30" s="7" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="8">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I31" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J31" s="9" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="6">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6" t="s">
@@ -2288,1862 +2665,2090 @@
       <c r="E32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="6"/>
+      <c r="F32" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J32" s="7" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="D33" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+        <v>106</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>107</v>
+      </c>
       <c r="H33" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="J33" s="9" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="6">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="6"/>
+        <v>109</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I34" s="6"/>
+        <v>110</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J34" s="7" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="8">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="6">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="H36" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I36" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="J36" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="8">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>91</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F37" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="I37" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J37" s="9" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="6">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="6"/>
+        <v>122</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="D38" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J38" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I39" s="8"/>
+        <v>125</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="J39" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="6">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="D40" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="J40" s="7" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I41" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J41" s="9" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="6">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F42" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I42" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="J42" s="7" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I43" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="J43" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="6">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C44" s="6"/>
       <c r="D44" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I44" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J44" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="8"/>
+        <v>134</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="D45" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
+        <v>135</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>107</v>
+      </c>
       <c r="H45" s="8" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="6">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>91</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I46" s="6"/>
+        <v>139</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J46" s="7" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="8">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="8"/>
+        <v>140</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="D47" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="8"/>
+        <v>141</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" s="8"/>
+        <v>142</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J47" s="9" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="6">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>110</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C48" s="6"/>
       <c r="D48" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I48" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="J48" s="7" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" s="8"/>
+        <v>145</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="D49" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="6">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I50" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="J50" s="7" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51" s="8"/>
+        <v>149</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I51" s="8"/>
+        <v>73</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J51" s="9" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="6">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F52" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I52" s="6"/>
+        <v>151</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="J52" s="7" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F53" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="6">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>34</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C54" s="6"/>
       <c r="D54" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F54" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I54" s="6"/>
+        <v>155</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J54" s="7" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="8">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="8"/>
+        <v>157</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="D55" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="K55" s="1"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="6">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F56" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I56" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J56" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K56" s="1"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F57" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I57" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="J57" s="9" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="K57" s="1"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="6">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>41</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C58" s="6"/>
       <c r="D58" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F58" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I58" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J58" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K58" s="1"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>56</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C59" s="8"/>
       <c r="D59" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="I59" s="8"/>
+        <v>155</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="J59" s="9" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="K59" s="1"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="6">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" s="6"/>
+        <v>162</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="D60" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J60" s="7" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="K60" s="1"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="8">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C61" s="8"/>
+        <v>163</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="D61" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="G61" s="8"/>
       <c r="H61" s="8" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="K61" s="1"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="6">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C62" s="6"/>
       <c r="D62" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F62" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I62" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J62" s="7" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="K62" s="1"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="8">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C63" s="8"/>
       <c r="D63" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F63" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I63" s="8"/>
+        <v>142</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="J63" s="9" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="K63" s="1"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="6">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C64" s="6"/>
+        <v>166</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="D64" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I64" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J64" s="7" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="K64" s="1"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65" s="8"/>
+        <v>167</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="D65" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I65" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J65" s="9" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="K65" s="1"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="6">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F66" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="G66" s="6"/>
       <c r="H66" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I66" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J66" s="7" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="K66" s="1"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="8">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>56</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C67" s="8"/>
       <c r="D67" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F67" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="G67" s="8"/>
       <c r="H67" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I67" s="8"/>
+        <v>170</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J67" s="9" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="K67" s="1"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="6">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F68" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="G68" s="6"/>
       <c r="H68" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I68" s="6"/>
+        <v>170</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J68" s="7" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="K68" s="1"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="8">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C69" s="8"/>
+        <v>173</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>148</v>
+      </c>
       <c r="D69" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" s="8"/>
+        <v>149</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="G69" s="8"/>
       <c r="H69" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I69" s="8"/>
+        <v>110</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J69" s="9" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="K69" s="1"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="6">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F70" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="G70" s="6"/>
       <c r="H70" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="I70" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="J70" s="7" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="K70" s="1"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F71" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="G71" s="8"/>
       <c r="H71" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I71" s="8"/>
+        <v>125</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="J71" s="9" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="K71" s="1"/>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="6">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C72" s="6"/>
+        <v>177</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="D72" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" s="6"/>
+        <v>178</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="G72" s="6"/>
       <c r="H72" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I72" s="6"/>
+        <v>179</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="J72" s="7" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F73" s="8"/>
+        <v>178</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="G73" s="8"/>
       <c r="H73" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="I73" s="8"/>
+        <v>181</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J73" s="9" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="K73" s="1"/>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="6">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F74" s="6"/>
+        <v>183</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="I74" s="6"/>
+        <v>184</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J74" s="7" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="K74" s="1"/>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="8">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F75" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I75" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="J75" s="9" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="K75" s="1"/>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="6">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F76" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G76" s="6"/>
       <c r="H76" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I76" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="J76" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K76" s="1"/>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="8">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="C77" s="8"/>
       <c r="D77" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F77" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="G77" s="8"/>
       <c r="H77" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I77" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="J77" s="9" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="K77" s="1"/>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="6">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>142</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C78" s="6"/>
       <c r="D78" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F78" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I78" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J78" s="7" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="K78" s="1"/>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="8">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="I79" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J79" s="9" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="K79" s="1"/>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="6">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F80" s="6"/>
+        <v>181</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="G80" s="6"/>
       <c r="H80" s="6" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="K80" s="1"/>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="8">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C81" s="8"/>
+        <v>191</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="D81" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F81" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="G81" s="8"/>
       <c r="H81" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I81" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="J81" s="9" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="K81" s="1"/>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="6">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C82" s="6"/>
+        <v>192</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="D82" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I82" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="J82" s="7" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="K82" s="1"/>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="8">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F83" s="8"/>
+        <v>149</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="G83" s="8"/>
       <c r="H83" s="8" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="K83" s="1"/>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="6">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F84" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G84" s="6"/>
       <c r="H84" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I84" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J84" s="7" t="s">
-        <v>32</v>
+        <v>194</v>
       </c>
       <c r="K84" s="1"/>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="8">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C85" s="8"/>
+        <v>196</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="D85" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F85" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="G85" s="8"/>
       <c r="H85" s="8" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="K85" s="1"/>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="6">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C86" s="6"/>
+        <v>197</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="D86" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G86" s="6"/>
       <c r="H86" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I86" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="J86" s="7" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="K86" s="1"/>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="8">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F87" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="G87" s="8"/>
       <c r="H87" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I87" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="J87" s="9" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="K87" s="1"/>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="6">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F88" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="G88" s="6"/>
       <c r="H88" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I88" s="6"/>
+        <v>201</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J88" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K88" s="1"/>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="8">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F89" s="8"/>
+        <v>149</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="G89" s="8"/>
       <c r="H89" s="8" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K89" s="1"/>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="6">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F90" s="6"/>
+        <v>205</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G90" s="6"/>
       <c r="H90" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I90" s="6"/>
+        <v>206</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="J90" s="7" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
       <c r="K90" s="1"/>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="8">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F91" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="G91" s="8"/>
       <c r="H91" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="I91" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J91" s="9" t="s">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="K91" s="1"/>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="6">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F92" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="G92" s="6"/>
       <c r="H92" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I92" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J92" s="7" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="K92" s="1"/>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="8">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F93" s="8"/>
+        <v>181</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="G93" s="8"/>
       <c r="H93" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I93" s="8"/>
+        <v>211</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J93" s="9" t="s">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="K93" s="1"/>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="6">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C94" s="6"/>
       <c r="D94" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G94" s="6"/>
       <c r="H94" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I94" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="J94" s="7" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="K94" s="1"/>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="8">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>40</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C95" s="8"/>
       <c r="D95" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F95" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="G95" s="8"/>
       <c r="H95" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I95" s="8"/>
+        <v>153</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J95" s="9" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="K95" s="1"/>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="6">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C96" s="6"/>
       <c r="D96" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F96" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G96" s="6"/>
       <c r="H96" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="K96" s="1"/>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="8">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C97" s="8"/>
       <c r="D97" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="G97" s="8"/>
       <c r="H97" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I97" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J97" s="9" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="K97" s="1"/>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="6">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>105</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C98" s="6"/>
       <c r="D98" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F98" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="G98" s="6"/>
       <c r="H98" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I98" s="6"/>
+        <v>170</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="J98" s="7" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="K98" s="1"/>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="8">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>40</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C99" s="8"/>
       <c r="D99" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G99" s="8"/>
       <c r="H99" s="8" t="s">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="K99" s="1"/>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="6">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C100" s="6"/>
       <c r="D100" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F100" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G100" s="6"/>
       <c r="H100" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I100" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J100" s="7" t="s">
         <v>44</v>
       </c>
@@ -4151,1350 +4756,1498 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="8">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
+        <v>221</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>222</v>
+      </c>
       <c r="H101" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I101" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="J101" s="9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K101" s="1"/>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="6">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>56</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C102" s="6"/>
       <c r="D102" s="6" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>222</v>
+      </c>
       <c r="H102" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I102" s="6"/>
+        <v>224</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="J102" s="7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K102" s="1"/>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="8">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="8" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" s="8"/>
+        <v>119</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="G103" s="8"/>
       <c r="H103" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I103" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="J103" s="9" t="s">
-        <v>20</v>
+        <v>226</v>
       </c>
       <c r="K103" s="1"/>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="6">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6" t="s">
-        <v>15</v>
+        <v>228</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
+        <v>228</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="H104" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I104" s="6"/>
+        <v>155</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J104" s="7" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="K104" s="1"/>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="8">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8" t="s">
-        <v>15</v>
+        <v>228</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
+        <v>228</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="H105" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I105" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="J105" s="9" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="K105" s="1"/>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="6">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6" t="s">
-        <v>15</v>
+        <v>228</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
+        <v>228</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="H106" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I106" s="6"/>
+        <v>155</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J106" s="7" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="K106" s="1"/>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="8">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="8" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
+        <v>233</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>234</v>
+      </c>
       <c r="H107" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I107" s="8"/>
+        <v>235</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="J107" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K107" s="1"/>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="6">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>188</v>
+        <v>236</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
+        <v>237</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="H108" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I108" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="J108" s="7" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="K108" s="1"/>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="8">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="8" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
+        <v>237</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>238</v>
+      </c>
       <c r="H109" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I109" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J109" s="9" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="K109" s="1"/>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="6">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>75</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C110" s="6"/>
       <c r="D110" s="6" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
+        <v>241</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="H110" s="6" t="s">
-        <v>53</v>
+        <v>243</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="K110" s="1"/>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="8">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="C111" s="8"/>
       <c r="D111" s="8" t="s">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F111" s="8"/>
+        <v>245</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="G111" s="8"/>
       <c r="H111" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I111" s="8"/>
+        <v>246</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="J111" s="9" t="s">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="K111" s="1"/>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="6">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F112" s="6"/>
+        <v>249</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="G112" s="6"/>
       <c r="H112" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I112" s="6"/>
+        <v>250</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J112" s="7" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="K112" s="1"/>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="8">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>194</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C113" s="8"/>
       <c r="D113" s="8" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="F113" s="8"/>
+        <v>249</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="G113" s="8"/>
       <c r="H113" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="I113" s="8"/>
+        <v>250</v>
+      </c>
+      <c r="I113" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="J113" s="9" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="K113" s="1"/>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="6">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>198</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C114" s="6"/>
       <c r="D114" s="6" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="F114" s="6"/>
+        <v>249</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="G114" s="6"/>
       <c r="H114" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="I114" s="6"/>
+        <v>255</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J114" s="7" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="K114" s="1"/>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="8">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="C115" s="8"/>
       <c r="D115" s="8" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F115" s="8"/>
+        <v>249</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="G115" s="8"/>
       <c r="H115" s="8" t="s">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>203</v>
+        <v>259</v>
       </c>
       <c r="K115" s="1"/>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="6">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="F116" s="6"/>
+        <v>261</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="G116" s="6"/>
       <c r="H116" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="I116" s="6"/>
+        <v>262</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J116" s="7" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="K116" s="1"/>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="8">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c r="C117" s="8"/>
       <c r="D117" s="8" t="s">
-        <v>169</v>
+        <v>265</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F117" s="8"/>
+        <v>265</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="G117" s="8"/>
       <c r="H117" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="I117" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="I117" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="J117" s="9" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="K117" s="1"/>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="6">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I118" s="6"/>
+        <v>201</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="J118" s="7" t="s">
-        <v>207</v>
+        <v>269</v>
       </c>
       <c r="K118" s="1"/>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="8">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>209</v>
+        <v>270</v>
       </c>
       <c r="C119" s="8"/>
       <c r="D119" s="8" t="s">
-        <v>169</v>
+        <v>271</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>169</v>
+        <v>271</v>
       </c>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c r="H119" s="8" t="s">
-        <v>169</v>
+        <v>271</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="9" t="s">
-        <v>207</v>
+        <v>272</v>
       </c>
       <c r="K119" s="1"/>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="6">
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>125</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="C120" s="6"/>
       <c r="D120" s="6" t="s">
-        <v>15</v>
+        <v>274</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
       <c r="I120" s="6"/>
       <c r="J120" s="7" t="s">
-        <v>212</v>
+        <v>275</v>
       </c>
       <c r="K120" s="1"/>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="8">
-        <v>501</v>
+        <v>391</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>51</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="C121" s="8"/>
       <c r="D121" s="8" t="s">
-        <v>15</v>
+        <v>274</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>52</v>
+        <v>274</v>
       </c>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c r="H121" s="8" t="s">
-        <v>52</v>
+        <v>274</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="9" t="s">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="K121" s="1"/>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="6">
-        <v>502</v>
+        <v>392</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6" t="s">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6" t="s">
-        <v>17</v>
+        <v>278</v>
       </c>
       <c r="I122" s="6"/>
       <c r="J122" s="7" t="s">
-        <v>18</v>
+        <v>279</v>
       </c>
       <c r="K122" s="1"/>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="8">
-        <v>503</v>
+        <v>393</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="C123" s="8"/>
       <c r="D123" s="8" t="s">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>23</v>
+        <v>278</v>
       </c>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c r="H123" s="8" t="s">
-        <v>23</v>
+        <v>278</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="9" t="s">
-        <v>24</v>
+        <v>279</v>
       </c>
       <c r="K123" s="1"/>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="6">
-        <v>504</v>
+        <v>395</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>34</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="C124" s="6"/>
       <c r="D124" s="6" t="s">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6" t="s">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="I124" s="6"/>
       <c r="J124" s="7" t="s">
-        <v>37</v>
+        <v>279</v>
       </c>
       <c r="K124" s="1"/>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="8">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>220</v>
+        <v>67</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F125" s="8"/>
+        <v>283</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="G125" s="8"/>
       <c r="H125" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="I125" s="8"/>
+        <v>284</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J125" s="9" t="s">
-        <v>222</v>
+        <v>285</v>
       </c>
       <c r="K125" s="1"/>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="6">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C126" s="6"/>
+        <v>286</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="D126" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F126" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="G126" s="6"/>
       <c r="H126" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I126" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="I126" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J126" s="7" t="s">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="K126" s="1"/>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="8">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>40</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="C127" s="8"/>
       <c r="D127" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F127" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="G127" s="8"/>
       <c r="H127" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I127" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="J127" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K127" s="1"/>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="6">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>225</v>
+        <v>289</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="F128" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="G128" s="6"/>
       <c r="H128" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="I128" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="J128" s="7" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="K128" s="1"/>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="8">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>228</v>
+        <v>290</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="F129" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="G129" s="8"/>
       <c r="H129" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="I129" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="J129" s="9" t="s">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="K129" s="1"/>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="6">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>229</v>
+        <v>292</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F130" s="6"/>
+        <v>293</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="G130" s="6"/>
       <c r="H130" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="I130" s="6"/>
+        <v>294</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="J130" s="7" t="s">
-        <v>231</v>
+        <v>295</v>
       </c>
       <c r="K130" s="1"/>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="8">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>229</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="C131" s="8"/>
       <c r="D131" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="F131" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="G131" s="8"/>
       <c r="H131" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="I131" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="J131" s="9" t="s">
-        <v>231</v>
+        <v>99</v>
       </c>
       <c r="K131" s="1"/>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="6">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>234</v>
+        <v>297</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F132" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="G132" s="6"/>
       <c r="H132" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I132" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="I132" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="J132" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K132" s="1"/>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="8">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>235</v>
+        <v>298</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G133" s="8"/>
       <c r="H133" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I133" s="8"/>
+        <v>300</v>
+      </c>
+      <c r="I133" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="J133" s="9" t="s">
-        <v>32</v>
+        <v>301</v>
       </c>
       <c r="K133" s="1"/>
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="6">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>86</v>
+        <v>303</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>87</v>
+        <v>304</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="G134" s="6"/>
       <c r="H134" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I134" s="6"/>
+        <v>305</v>
+      </c>
+      <c r="I134" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J134" s="7" t="s">
-        <v>88</v>
+        <v>306</v>
       </c>
       <c r="K134" s="1"/>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="8">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>239</v>
+        <v>307</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="F135" s="8"/>
+        <v>304</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="G135" s="8"/>
       <c r="H135" s="8" t="s">
-        <v>241</v>
+        <v>305</v>
       </c>
       <c r="I135" s="8" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>67</v>
+        <v>306</v>
       </c>
       <c r="K135" s="1"/>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="6">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>242</v>
+        <v>308</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>110</v>
+        <v>303</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F136" s="6"/>
+        <v>304</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="G136" s="6"/>
       <c r="H136" s="6" t="s">
-        <v>111</v>
+        <v>305</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="K136" s="1"/>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="8">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>244</v>
+        <v>309</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="F137" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="G137" s="8"/>
       <c r="H137" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="I137" s="8"/>
+        <v>310</v>
+      </c>
+      <c r="I137" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J137" s="9" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="K137" s="1"/>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="6">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>246</v>
+        <v>311</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>247</v>
+        <v>99</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="F138" s="6"/>
+        <v>312</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="G138" s="6"/>
       <c r="H138" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="I138" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="I138" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="J138" s="7" t="s">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="K138" s="1"/>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="8">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>249</v>
+        <v>313</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F139" s="8"/>
+        <v>109</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="G139" s="8"/>
       <c r="H139" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I139" s="8"/>
+        <v>91</v>
+      </c>
+      <c r="I139" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J139" s="9" t="s">
-        <v>32</v>
+        <v>314</v>
       </c>
       <c r="K139" s="1"/>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="6">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C140" s="6"/>
+        <v>315</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="D140" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F140" s="6"/>
+        <v>316</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G140" s="6"/>
       <c r="H140" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I140" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="I140" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="J140" s="7" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="K140" s="1"/>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="8">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F141" s="8"/>
+        <v>141</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="G141" s="8"/>
       <c r="H141" s="8" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="I141" s="8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="K141" s="1"/>
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="6">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>252</v>
+        <v>319</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F142" s="6"/>
+        <v>316</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="G142" s="6"/>
       <c r="H142" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I142" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="I142" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="J142" s="7" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="K142" s="1"/>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="8">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>253</v>
+        <v>320</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F143" s="8"/>
+        <v>321</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="G143" s="8"/>
       <c r="H143" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I143" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="I143" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="J143" s="9" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="K143" s="1"/>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="6">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C144" s="6"/>
+        <v>322</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="D144" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F144" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="G144" s="6"/>
       <c r="H144" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I144" s="6"/>
+      <c r="I144" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="J144" s="7" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="K144" s="1"/>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="8">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>256</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="C145" s="8"/>
       <c r="D145" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="F145" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="G145" s="8"/>
       <c r="H145" s="8" t="s">
-        <v>257</v>
+        <v>46</v>
       </c>
       <c r="I145" s="8" t="s">
-        <v>258</v>
+        <v>32</v>
       </c>
       <c r="J145" s="9" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="K145" s="1"/>
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="6">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C146" s="6"/>
+        <v>324</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="D146" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F146" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="G146" s="6"/>
       <c r="H146" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I146" s="6"/>
+        <v>310</v>
+      </c>
+      <c r="I146" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="J146" s="7" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="K146" s="1"/>
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="8">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>260</v>
+        <v>325</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F147" s="8"/>
-      <c r="G147" s="8" t="s">
-        <v>261</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G147" s="8"/>
       <c r="H147" s="8" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="I147" s="8" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="J147" s="9" t="s">
-        <v>256</v>
+        <v>144</v>
       </c>
       <c r="K147" s="1"/>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="6">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>262</v>
+        <v>326</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F148" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G148" s="6"/>
       <c r="H148" s="6" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>263</v>
+        <v>99</v>
       </c>
       <c r="J148" s="7" t="s">
-        <v>264</v>
+        <v>111</v>
       </c>
       <c r="K148" s="1"/>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="8">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C149" s="8"/>
       <c r="D149" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F149" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="G149" s="8"/>
       <c r="H149" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I149" s="8"/>
+        <v>328</v>
+      </c>
+      <c r="I149" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="J149" s="9" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="K149" s="1"/>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="6">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>266</v>
+        <v>329</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>36</v>
+        <v>330</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G150" s="6"/>
       <c r="H150" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I150" s="6"/>
+        <v>331</v>
+      </c>
+      <c r="I150" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="J150" s="7" t="s">
-        <v>99</v>
+        <v>318</v>
       </c>
       <c r="K150" s="1"/>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="8">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>267</v>
+        <v>332</v>
       </c>
       <c r="C151" s="8"/>
       <c r="D151" s="8" t="s">
@@ -5503,133 +6256,153 @@
       <c r="E151" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F151" s="8"/>
+      <c r="F151" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="G151" s="8"/>
       <c r="H151" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I151" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="I151" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="J151" s="9" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="K151" s="1"/>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="6">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>268</v>
+        <v>333</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E152" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G152" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="H152" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I152" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J152" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="F152" s="6"/>
-      <c r="G152" s="6"/>
-      <c r="H152" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I152" s="6"/>
-      <c r="J152" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="K152" s="1"/>
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="8">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C153" s="8"/>
+        <v>335</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="D153" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="G153" s="8"/>
       <c r="H153" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="I153" s="8"/>
+        <v>310</v>
+      </c>
+      <c r="I153" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="J153" s="9" t="s">
-        <v>271</v>
+        <v>119</v>
       </c>
       <c r="K153" s="1"/>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="6">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>272</v>
+        <v>336</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F154" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="G154" s="6"/>
       <c r="H154" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I154" s="6"/>
+        <v>149</v>
+      </c>
+      <c r="I154" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="J154" s="7" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="K154" s="1"/>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="8">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>247</v>
+        <v>34</v>
       </c>
       <c r="D155" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="F155" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>148</v>
+      </c>
       <c r="G155" s="8"/>
       <c r="H155" s="8" t="s">
-        <v>248</v>
+        <v>66</v>
       </c>
       <c r="I155" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J155" s="9" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="K155" s="1"/>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="6">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6" t="s">
@@ -5639,209 +6412,239 @@
         <v>15</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="G156" s="6"/>
       <c r="H156" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I156" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="I156" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J156" s="7" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="K156" s="1"/>
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="8">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>275</v>
+        <v>339</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="D157" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F157" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="G157" s="8"/>
       <c r="H157" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I157" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="I157" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J157" s="9" t="s">
-        <v>54</v>
+        <v>287</v>
       </c>
       <c r="K157" s="1"/>
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="6">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>110</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C158" s="6"/>
       <c r="D158" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F158" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="G158" s="6"/>
       <c r="H158" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I158" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="I158" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J158" s="7" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="K158" s="1"/>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="8">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C159" s="8"/>
+        <v>341</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="D159" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F159" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="G159" s="8"/>
       <c r="H159" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I159" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="I159" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J159" s="9" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="K159" s="1"/>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="6">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C160" s="6"/>
+        <v>342</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="D160" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F160" s="6"/>
+        <v>321</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="G160" s="6"/>
       <c r="H160" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I160" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="I160" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="J160" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K160" s="1"/>
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="8">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>51</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="C161" s="8"/>
       <c r="D161" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F161" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="G161" s="8"/>
       <c r="H161" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I161" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="I161" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="J161" s="9" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="K161" s="1"/>
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="6">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F162" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="G162" s="6"/>
       <c r="H162" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I162" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="I162" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="J162" s="7" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="K162" s="1"/>
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="8">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="C163" s="8"/>
+        <v>345</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="D163" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F163" s="8"/>
+        <v>141</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="G163" s="8"/>
       <c r="H163" s="8" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="I163" s="8" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="J163" s="9" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="K163" s="1"/>
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="6">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>282</v>
+        <v>346</v>
       </c>
       <c r="C164" s="6"/>
       <c r="D164" s="6" t="s">
@@ -5850,108 +6653,118 @@
       <c r="E164" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F164" s="6"/>
+      <c r="F164" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G164" s="6"/>
       <c r="H164" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I164" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="I164" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J164" s="7" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="K164" s="1"/>
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="8">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>283</v>
+        <v>347</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D165" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G165" s="8"/>
       <c r="H165" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I165" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="I165" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="J165" s="9" t="s">
-        <v>37</v>
+        <v>287</v>
       </c>
       <c r="K165" s="1"/>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="6">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>284</v>
+        <v>348</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F166" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="G166" s="6"/>
       <c r="H166" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I166" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="I166" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="J166" s="7" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="K166" s="1"/>
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="8">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>247</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="C167" s="8"/>
       <c r="D167" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>248</v>
+        <v>15</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="G167" s="8"/>
       <c r="H167" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I167" s="8"/>
+        <v>350</v>
+      </c>
+      <c r="I167" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="J167" s="9" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K167" s="1"/>
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="6">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>286</v>
+        <v>351</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="6" t="s">
@@ -5960,156 +6773,180 @@
       <c r="E168" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F168" s="6"/>
+      <c r="F168" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="G168" s="6"/>
       <c r="H168" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I168" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="I168" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="J168" s="7" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="K168" s="1"/>
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="8">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>287</v>
+        <v>352</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="G169" s="8"/>
       <c r="H169" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I169" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="I169" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J169" s="9" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="K169" s="1"/>
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="6">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C170" s="6"/>
+        <v>353</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="D170" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F170" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="G170" s="6"/>
       <c r="H170" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I170" s="6"/>
+        <v>155</v>
+      </c>
+      <c r="I170" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J170" s="7" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="K170" s="1"/>
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="8">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C171" s="8"/>
+        <v>354</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="D171" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>15</v>
+        <v>321</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="G171" s="8"/>
       <c r="H171" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I171" s="8"/>
+        <v>355</v>
+      </c>
+      <c r="I171" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J171" s="9" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="K171" s="1"/>
     </row>
     <row r="172" spans="1:13">
       <c r="A172" s="6">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>236</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="C172" s="6"/>
       <c r="D172" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="F172" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="G172" s="6"/>
       <c r="H172" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="I172" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="I172" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="J172" s="7" t="s">
-        <v>291</v>
+        <v>62</v>
       </c>
       <c r="K172" s="1"/>
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="8">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C173" s="8"/>
+        <v>357</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="D173" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F173" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="F173" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="G173" s="8"/>
       <c r="H173" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I173" s="8"/>
+        <v>73</v>
+      </c>
+      <c r="I173" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J173" s="9" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="K173" s="1"/>
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="6">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>293</v>
+        <v>358</v>
       </c>
       <c r="C174" s="6"/>
       <c r="D174" s="6" t="s">
@@ -6119,28 +6956,28 @@
         <v>15</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="G174" s="6"/>
       <c r="H174" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="I174" s="6"/>
+        <v>170</v>
+      </c>
+      <c r="I174" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="J174" s="7" t="s">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="K174" s="1"/>
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="8">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C175" s="8" t="s">
-        <v>142</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="C175" s="8"/>
       <c r="D175" s="8" t="s">
         <v>15</v>
       </c>
@@ -6148,76 +6985,86 @@
         <v>15</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="G175" s="8"/>
       <c r="H175" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="I175" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="I175" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="J175" s="9" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="K175" s="1"/>
     </row>
     <row r="176" spans="1:13">
       <c r="A176" s="6">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C176" s="6"/>
+        <v>360</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="D176" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F176" s="6"/>
+        <v>361</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="G176" s="6"/>
       <c r="H176" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I176" s="6"/>
+        <v>362</v>
+      </c>
+      <c r="I176" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="J176" s="7" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="K176" s="1"/>
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="8">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="C177" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="C177" s="8"/>
       <c r="D177" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F177" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="G177" s="8"/>
       <c r="H177" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I177" s="8"/>
+        <v>170</v>
+      </c>
+      <c r="I177" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J177" s="9" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="K177" s="1"/>
     </row>
     <row r="178" spans="1:13">
       <c r="A178" s="6">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>298</v>
+        <v>364</v>
       </c>
       <c r="C178" s="6"/>
       <c r="D178" s="6" t="s">
@@ -6227,217 +7074,241 @@
         <v>15</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="G178" s="6"/>
       <c r="H178" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I178" s="6"/>
+        <v>365</v>
+      </c>
+      <c r="I178" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J178" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="K178" s="1"/>
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="8">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C179" s="8" t="s">
-        <v>105</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="C179" s="8"/>
       <c r="D179" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F179" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="G179" s="8"/>
       <c r="H179" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I179" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="I179" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J179" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="K179" s="1"/>
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="6">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>300</v>
+        <v>367</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D180" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F180" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="G180" s="6"/>
       <c r="H180" s="6" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I180" s="6" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J180" s="7" t="s">
-        <v>301</v>
+        <v>368</v>
       </c>
       <c r="K180" s="1"/>
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="8">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>41</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="C181" s="8"/>
       <c r="D181" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="G181" s="8"/>
       <c r="H181" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I181" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="I181" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="J181" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K181" s="1"/>
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="6">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F182" s="6"/>
-      <c r="G182" s="6"/>
+        <v>371</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G182" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="H182" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I182" s="6"/>
+        <v>178</v>
+      </c>
+      <c r="I182" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J182" s="7" t="s">
-        <v>58</v>
+        <v>314</v>
       </c>
       <c r="K182" s="1"/>
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="8">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="C183" s="8"/>
+        <v>372</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="D183" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F183" s="8"/>
+        <v>181</v>
+      </c>
+      <c r="F183" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="G183" s="8"/>
       <c r="H183" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I183" s="8"/>
+        <v>373</v>
+      </c>
+      <c r="I183" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J183" s="9" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="K183" s="1"/>
     </row>
     <row r="184" spans="1:13">
       <c r="A184" s="6">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>305</v>
+        <v>374</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D184" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>23</v>
+        <v>375</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="G184" s="6"/>
       <c r="H184" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I184" s="6"/>
+        <v>376</v>
+      </c>
+      <c r="I184" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="J184" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K184" s="1"/>
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="8">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>306</v>
+        <v>377</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="D185" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="F185" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="F185" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="G185" s="8"/>
       <c r="H185" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="I185" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="I185" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="J185" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K185" s="1"/>
     </row>
     <row r="186" spans="1:13">
       <c r="A186" s="6">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>308</v>
+        <v>378</v>
       </c>
       <c r="C186" s="6"/>
       <c r="D186" s="6" t="s">
@@ -6446,105 +7317,463 @@
       <c r="E186" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F186" s="6"/>
+      <c r="F186" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G186" s="6"/>
       <c r="H186" s="6" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="I186" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J186" s="7" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="K186" s="1"/>
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="8">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C187" s="8"/>
+        <v>379</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="D187" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F187" s="8"/>
+        <v>183</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="G187" s="8"/>
       <c r="H187" s="8" t="s">
-        <v>15</v>
+        <v>380</v>
       </c>
       <c r="I187" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J187" s="9" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="K187" s="1"/>
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="6">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>310</v>
+        <v>381</v>
       </c>
       <c r="C188" s="6"/>
       <c r="D188" s="6" t="s">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="F188" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G188" s="6"/>
       <c r="H188" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="I188" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="I188" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="J188" s="7" t="s">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c r="K188" s="1"/>
     </row>
-    <row r="189" spans="1:13" customHeight="1" ht="17.25">
-      <c r="A189" s="10"/>
-      <c r="B189" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="D189" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="E189" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="F189" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="G189" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="H189" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="I189" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="J189" s="10" t="s">
-        <v>318</v>
+    <row r="189" spans="1:13">
+      <c r="A189" s="8">
+        <v>600</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C189" s="8"/>
+      <c r="D189" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F189" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G189" s="8"/>
+      <c r="H189" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I189" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J189" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="K189" s="1"/>
+    </row>
+    <row r="190" spans="1:13">
+      <c r="A190" s="6">
+        <v>602</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C190" s="6"/>
+      <c r="D190" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G190" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="H190" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I190" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J190" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K190" s="1"/>
+    </row>
+    <row r="191" spans="1:13">
+      <c r="A191" s="8">
+        <v>603</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C191" s="8"/>
+      <c r="D191" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G191" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="H191" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I191" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J191" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K191" s="1"/>
+    </row>
+    <row r="192" spans="1:13">
+      <c r="A192" s="6">
+        <v>604</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="H192" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I192" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J192" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K192" s="1"/>
+    </row>
+    <row r="193" spans="1:13">
+      <c r="A193" s="8">
+        <v>605</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C193" s="8"/>
+      <c r="D193" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G193" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="H193" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I193" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J193" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="K193" s="1"/>
+    </row>
+    <row r="194" spans="1:13">
+      <c r="A194" s="6">
+        <v>606</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G194" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="H194" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I194" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J194" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K194" s="1"/>
+    </row>
+    <row r="195" spans="1:13">
+      <c r="A195" s="8">
+        <v>607</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C195" s="8"/>
+      <c r="D195" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G195" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="H195" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="I195" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J195" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K195" s="1"/>
+    </row>
+    <row r="196" spans="1:13">
+      <c r="A196" s="6">
+        <v>608</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C196" s="6"/>
+      <c r="D196" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G196" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="H196" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I196" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J196" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K196" s="1"/>
+    </row>
+    <row r="197" spans="1:13">
+      <c r="A197" s="8">
+        <v>609</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C197" s="8"/>
+      <c r="D197" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="F197" s="8"/>
+      <c r="G197" s="8"/>
+      <c r="H197" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="I197" s="8"/>
+      <c r="J197" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="K197" s="1"/>
+    </row>
+    <row r="198" spans="1:13">
+      <c r="A198" s="6">
+        <v>610</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="I198" s="6"/>
+      <c r="J198" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K198" s="1"/>
+    </row>
+    <row r="199" spans="1:13">
+      <c r="A199" s="8">
+        <v>611</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C199" s="8"/>
+      <c r="D199" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G199" s="8"/>
+      <c r="H199" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="I199" s="8"/>
+      <c r="J199" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="K199" s="1"/>
+    </row>
+    <row r="200" spans="1:13">
+      <c r="A200" s="6">
+        <v>612</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="F200" s="6"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="I200" s="6"/>
+      <c r="J200" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K200" s="1"/>
+    </row>
+    <row r="201" spans="1:13" customHeight="1" ht="17.25">
+      <c r="A201" s="10"/>
+      <c r="B201" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="D201" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="E201" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="F201" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="G201" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="H201" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="I201" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="J201" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="K201" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <autoFilter ref="A5:J190"/>
+  <autoFilter ref="A5:J202"/>
   <mergeCells>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:C3"/>
